--- a/engine2_database.xlsx
+++ b/engine2_database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghoekwon/Desktop/LIB_Model/Engine_2/Database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghoekwon/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13029F67-25A7-BD48-AF84-A1B245E3B978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7881423F-E311-E047-A4F6-5AC1C9CC60D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D1B6241B-A726-4FFC-A18A-530BCE24325E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21800" windowHeight="12980" xr2:uid="{D1B6241B-A726-4FFC-A18A-530BCE24325E}"/>
   </bookViews>
   <sheets>
     <sheet name="LCA_Data" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
   <si>
     <t>CO2_kg_per_m2</t>
   </si>
@@ -78,13 +78,7 @@
     <t>NMP</t>
   </si>
   <si>
-    <t>GG</t>
-  </si>
-  <si>
     <t>Water</t>
-  </si>
-  <si>
-    <t>CMGG</t>
   </si>
   <si>
     <t>Areal_Mass_Loading_g_m2</t>
@@ -95,6 +89,18 @@
   </si>
   <si>
     <t>로딩매스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMGG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GG</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -102,7 +108,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,8 +137,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -141,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -149,23 +166,160 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,29 +656,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C8FD32-723E-45FD-9552-C953F1875FC7}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="19" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -541,7 +695,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -550,7 +704,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>0</v>
@@ -563,49 +717,49 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" s="5">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5">
         <v>90</v>
       </c>
-      <c r="E2" s="1">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.185</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="E2" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="G2" s="5">
         <v>80</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="5">
         <v>720</v>
       </c>
-      <c r="I2" s="1">
-        <v>63.67</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2.88</v>
+      <c r="I2" s="19">
+        <v>53.787874639999998</v>
+      </c>
+      <c r="J2" s="13">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="K2" s="13">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="L2" s="14">
+        <v>2.94</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
@@ -616,8 +770,8 @@
       <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="F3" s="1">
-        <v>0.185</v>
+      <c r="F3" s="8">
+        <v>0.15</v>
       </c>
       <c r="G3" s="1">
         <v>80</v>
@@ -625,25 +779,25 @@
       <c r="H3" s="1">
         <v>720</v>
       </c>
-      <c r="I3" s="1">
-        <v>72.41</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="20">
+        <v>52.03392221</v>
+      </c>
+      <c r="J3" s="15">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="15">
         <v>0.15</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
+      <c r="A4" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -654,8 +808,8 @@
       <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="1">
-        <v>0.185</v>
+      <c r="F4" s="8">
+        <v>0.15</v>
       </c>
       <c r="G4" s="1">
         <v>80</v>
@@ -663,25 +817,25 @@
       <c r="H4" s="1">
         <v>720</v>
       </c>
-      <c r="I4" s="1">
-        <v>72.41</v>
-      </c>
-      <c r="J4" s="1">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="I4" s="21">
+        <v>49.695318970000002</v>
+      </c>
+      <c r="J4" s="15">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="L4" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
@@ -692,8 +846,8 @@
       <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="F5" s="1">
-        <v>0.185</v>
+      <c r="F5" s="8">
+        <v>0.15</v>
       </c>
       <c r="G5" s="1">
         <v>80</v>
@@ -701,21 +855,21 @@
       <c r="H5" s="1">
         <v>720</v>
       </c>
-      <c r="I5" s="1">
-        <v>72.41</v>
-      </c>
-      <c r="J5" s="1">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="I5" s="21">
+        <v>28.647889759999998</v>
+      </c>
+      <c r="J5" s="15">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="K5" s="15">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="L5" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -731,7 +885,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="1">
-        <v>0.185</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="G6" s="1">
         <v>80</v>
@@ -739,25 +893,25 @@
       <c r="H6" s="1">
         <v>720</v>
       </c>
-      <c r="I6" s="1">
-        <v>62.33</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="L6" s="1">
-        <v>2.82</v>
+      <c r="I6" s="21">
+        <v>54.957176270000005</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="L6" s="16">
+        <v>3.01</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
@@ -769,7 +923,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>0.185</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="G7" s="1">
         <v>80</v>
@@ -777,25 +931,25 @@
       <c r="H7" s="1">
         <v>720</v>
       </c>
-      <c r="I7" s="1">
-        <v>72.41</v>
-      </c>
-      <c r="J7" s="1">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="I7" s="21">
+        <v>56.126477890000004</v>
+      </c>
+      <c r="J7" s="15">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.161</v>
+      </c>
+      <c r="L7" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
+      <c r="A8" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
@@ -807,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="1">
-        <v>0.185</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="G8" s="1">
         <v>80</v>
@@ -815,25 +969,25 @@
       <c r="H8" s="1">
         <v>720</v>
       </c>
-      <c r="I8" s="1">
-        <v>67.56</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="L8" s="1">
-        <v>3.06</v>
+      <c r="I8" s="21">
+        <v>66.065541679999995</v>
+      </c>
+      <c r="J8" s="15">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0.189</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
@@ -845,7 +999,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="1">
-        <v>0.185</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="G9" s="1">
         <v>80</v>
@@ -853,21 +1007,21 @@
       <c r="H9" s="1">
         <v>720</v>
       </c>
-      <c r="I9" s="1">
-        <v>72.41</v>
-      </c>
-      <c r="J9" s="1">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="I9" s="21">
+        <v>35.663699489999999</v>
+      </c>
+      <c r="J9" s="15">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="L9" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -882,8 +1036,8 @@
       <c r="E10" s="1">
         <v>5</v>
       </c>
-      <c r="F10" s="1">
-        <v>0.185</v>
+      <c r="F10" s="9">
+        <v>0.2</v>
       </c>
       <c r="G10" s="1">
         <v>80</v>
@@ -891,25 +1045,25 @@
       <c r="H10" s="1">
         <v>720</v>
       </c>
-      <c r="I10" s="1">
-        <v>66.22</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="L10" s="1">
-        <v>3</v>
+      <c r="I10" s="21">
+        <v>46.772064909999997</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="L10" s="16">
+        <v>2.56</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
@@ -920,8 +1074,8 @@
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="1">
-        <v>0.185</v>
+      <c r="F11" s="9">
+        <v>0.2</v>
       </c>
       <c r="G11" s="1">
         <v>80</v>
@@ -929,25 +1083,25 @@
       <c r="H11" s="1">
         <v>720</v>
       </c>
-      <c r="I11" s="1">
-        <v>72.41</v>
-      </c>
-      <c r="J11" s="1">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="I11" s="21">
+        <v>54.372525459999999</v>
+      </c>
+      <c r="J11" s="15">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.156</v>
+      </c>
+      <c r="L11" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
+      <c r="A12" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -958,8 +1112,8 @@
       <c r="E12" s="1">
         <v>5</v>
       </c>
-      <c r="F12" s="1">
-        <v>0.185</v>
+      <c r="F12" s="9">
+        <v>0.2</v>
       </c>
       <c r="G12" s="1">
         <v>80</v>
@@ -967,186 +1121,396 @@
       <c r="H12" s="1">
         <v>720</v>
       </c>
-      <c r="I12" s="1">
-        <v>72.41</v>
-      </c>
-      <c r="J12" s="1">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="I12" s="21">
+        <v>83.605066019999995</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0.109</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="L12" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+    <row r="13" spans="1:12" ht="18">
+      <c r="A13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>90</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>80</v>
+      </c>
+      <c r="H13" s="1">
+        <v>720</v>
+      </c>
+      <c r="I13" s="21">
+        <v>46.772064909999997</v>
+      </c>
+      <c r="J13" s="15">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="K13" s="15">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="L13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18">
+      <c r="A14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>90</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G14" s="1">
+        <v>80</v>
+      </c>
+      <c r="H14" s="1">
+        <v>720</v>
+      </c>
+      <c r="I14" s="20">
+        <v>80.097161159999999</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="L14" s="16">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18">
+      <c r="A15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>90</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G15" s="1">
+        <v>80</v>
+      </c>
+      <c r="H15" s="1">
+        <v>720</v>
+      </c>
+      <c r="I15" s="21">
+        <v>64.896240059999997</v>
+      </c>
+      <c r="J15" s="15">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.186</v>
+      </c>
+      <c r="L15" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18">
+      <c r="A16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>90</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>80</v>
+      </c>
+      <c r="H16" s="1">
+        <v>720</v>
+      </c>
+      <c r="I16" s="21">
+        <v>88.282272519999992</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0.115</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0.253</v>
+      </c>
+      <c r="L16" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="19" thickBot="1">
+      <c r="A17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="11">
+        <v>5</v>
+      </c>
+      <c r="D17" s="11">
+        <v>90</v>
+      </c>
+      <c r="E17" s="11">
+        <v>5</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G17" s="11">
+        <v>80</v>
+      </c>
+      <c r="H17" s="11">
+        <v>720</v>
+      </c>
+      <c r="I17" s="22">
+        <v>58.465081139999995</v>
+      </c>
+      <c r="J17" s="17">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="K17" s="17">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="L17" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="18">
+      <c r="A18" s="7"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" ht="18">
+      <c r="A19" s="7"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" ht="18">
+      <c r="A20" s="7"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" ht="18">
+      <c r="A21" s="7"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="1:12" ht="18">
+      <c r="A22" s="7"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="1:12" ht="18">
+      <c r="A23" s="7"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="24" spans="1:12" ht="18">
+      <c r="A24" s="7"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="16"/>
+    </row>
+    <row r="25" spans="1:12" ht="18">
+      <c r="A25" s="7"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="1:12" ht="18">
+      <c r="A26" s="7"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="16"/>
+    </row>
+    <row r="27" spans="1:12" ht="18">
+      <c r="A27" s="7"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="16"/>
+    </row>
+    <row r="28" spans="1:12" ht="18">
+      <c r="A28" s="7"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="16"/>
+    </row>
+    <row r="29" spans="1:12" ht="19" thickBot="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="18"/>
+    </row>
+    <row r="30" spans="1:12" ht="18">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" ht="18">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" ht="18">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="6:8" ht="18">
+      <c r="F33" s="3"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{D8C8FD32-723E-45FD-9552-C953F1875FC7}"/>
@@ -1164,11 +1528,11 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/engine2_database.xlsx
+++ b/engine2_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghoekwon/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7881423F-E311-E047-A4F6-5AC1C9CC60D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF26106-C372-4208-92DE-EC08793E72F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21800" windowHeight="12980" xr2:uid="{D1B6241B-A726-4FFC-A18A-530BCE24325E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{D1B6241B-A726-4FFC-A18A-530BCE24325E}"/>
   </bookViews>
   <sheets>
     <sheet name="LCA_Data" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>Water</t>
   </si>
   <si>
-    <t>Areal_Mass_Loading_g_m2</t>
-  </si>
-  <si>
     <t>Coating_Thickness_mm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -101,6 +98,10 @@
   </si>
   <si>
     <t>GG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Areal_Mass_Loading_mg_cm^2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +113,7 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,7 +253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,9 +263,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -274,12 +272,30 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -292,35 +308,14 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,29 +651,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C8FD32-723E-45FD-9552-C953F1875FC7}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.3125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.3125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.1875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.1875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" thickBot="1">
+    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -695,7 +690,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -704,7 +699,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>0</v>
@@ -716,47 +711,47 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5">
-        <v>90</v>
-      </c>
-      <c r="E2" s="5">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>90</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5">
         <v>0.15</v>
       </c>
-      <c r="G2" s="5">
-        <v>80</v>
-      </c>
-      <c r="H2" s="5">
-        <v>720</v>
-      </c>
-      <c r="I2" s="19">
-        <v>53.787874639999998</v>
-      </c>
-      <c r="J2" s="13">
+      <c r="G2" s="4">
+        <v>80</v>
+      </c>
+      <c r="H2" s="4">
+        <v>720</v>
+      </c>
+      <c r="I2" s="6">
+        <v>5.3787874640000002</v>
+      </c>
+      <c r="J2" s="7">
         <v>0.26700000000000002</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="7">
         <v>0.58699999999999997</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="8">
         <v>2.94</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
+    <row r="3" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
+      <c r="A3" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -770,7 +765,7 @@
       <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="10">
         <v>0.15</v>
       </c>
       <c r="G3" s="1">
@@ -779,22 +774,22 @@
       <c r="H3" s="1">
         <v>720</v>
       </c>
-      <c r="I3" s="20">
-        <v>52.03392221</v>
-      </c>
-      <c r="J3" s="15">
+      <c r="I3" s="2">
+        <v>5.2033922210000005</v>
+      </c>
+      <c r="J3" s="11">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="11">
         <v>0.15</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18">
-      <c r="A4" s="7" t="s">
-        <v>17</v>
+    <row r="4" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -808,7 +803,7 @@
       <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="10">
         <v>0.15</v>
       </c>
       <c r="G4" s="1">
@@ -817,22 +812,22 @@
       <c r="H4" s="1">
         <v>720</v>
       </c>
-      <c r="I4" s="21">
-        <v>49.695318970000002</v>
-      </c>
-      <c r="J4" s="15">
+      <c r="I4" s="13">
+        <v>4.9695318970000004</v>
+      </c>
+      <c r="J4" s="11">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="11">
         <v>0.14299999999999999</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18">
-      <c r="A5" s="7" t="s">
-        <v>16</v>
+    <row r="5" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
+      <c r="A5" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -846,7 +841,7 @@
       <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="10">
         <v>0.15</v>
       </c>
       <c r="G5" s="1">
@@ -855,21 +850,21 @@
       <c r="H5" s="1">
         <v>720</v>
       </c>
-      <c r="I5" s="21">
-        <v>28.647889759999998</v>
-      </c>
-      <c r="J5" s="15">
+      <c r="I5" s="13">
+        <v>2.8647889759999998</v>
+      </c>
+      <c r="J5" s="11">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="11">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -893,22 +888,22 @@
       <c r="H6" s="1">
         <v>720</v>
       </c>
-      <c r="I6" s="21">
-        <v>54.957176270000005</v>
-      </c>
-      <c r="J6" s="15">
+      <c r="I6" s="13">
+        <v>5.4957176270000012</v>
+      </c>
+      <c r="J6" s="11">
         <v>0.27300000000000002</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="11">
         <v>0.60099999999999998</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="12">
         <v>3.01</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18">
-      <c r="A7" s="7" t="s">
-        <v>18</v>
+    <row r="7" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
+      <c r="A7" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -931,22 +926,22 @@
       <c r="H7" s="1">
         <v>720</v>
       </c>
-      <c r="I7" s="21">
-        <v>56.126477890000004</v>
-      </c>
-      <c r="J7" s="15">
+      <c r="I7" s="13">
+        <v>5.6126477890000004</v>
+      </c>
+      <c r="J7" s="11">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="11">
         <v>0.161</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18">
-      <c r="A8" s="7" t="s">
-        <v>17</v>
+    <row r="8" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
+      <c r="A8" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
@@ -969,22 +964,22 @@
       <c r="H8" s="1">
         <v>720</v>
       </c>
-      <c r="I8" s="21">
-        <v>66.065541679999995</v>
-      </c>
-      <c r="J8" s="15">
+      <c r="I8" s="13">
+        <v>6.6065541679999997</v>
+      </c>
+      <c r="J8" s="11">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="11">
         <v>0.189</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18">
-      <c r="A9" s="7" t="s">
-        <v>16</v>
+    <row r="9" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
+      <c r="A9" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -1007,21 +1002,21 @@
       <c r="H9" s="1">
         <v>720</v>
       </c>
-      <c r="I9" s="21">
-        <v>35.663699489999999</v>
-      </c>
-      <c r="J9" s="15">
+      <c r="I9" s="13">
+        <v>3.5663699490000003</v>
+      </c>
+      <c r="J9" s="11">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="11">
         <v>0.10199999999999999</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
+      <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1036,7 +1031,7 @@
       <c r="E10" s="1">
         <v>5</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="14">
         <v>0.2</v>
       </c>
       <c r="G10" s="1">
@@ -1045,22 +1040,22 @@
       <c r="H10" s="1">
         <v>720</v>
       </c>
-      <c r="I10" s="21">
-        <v>46.772064909999997</v>
-      </c>
-      <c r="J10" s="15">
+      <c r="I10" s="13">
+        <v>4.6772064909999997</v>
+      </c>
+      <c r="J10" s="11">
         <v>0.23200000000000001</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="11">
         <v>0.51100000000000001</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="12">
         <v>2.56</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18">
-      <c r="A11" s="7" t="s">
-        <v>18</v>
+    <row r="11" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
+      <c r="A11" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -1074,7 +1069,7 @@
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="14">
         <v>0.2</v>
       </c>
       <c r="G11" s="1">
@@ -1083,22 +1078,22 @@
       <c r="H11" s="1">
         <v>720</v>
       </c>
-      <c r="I11" s="21">
-        <v>54.372525459999999</v>
-      </c>
-      <c r="J11" s="15">
+      <c r="I11" s="13">
+        <v>5.4372525459999999</v>
+      </c>
+      <c r="J11" s="11">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="11">
         <v>0.156</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18">
-      <c r="A12" s="7" t="s">
-        <v>17</v>
+    <row r="12" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
+      <c r="A12" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
@@ -1112,7 +1107,7 @@
       <c r="E12" s="1">
         <v>5</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="14">
         <v>0.2</v>
       </c>
       <c r="G12" s="1">
@@ -1121,22 +1116,22 @@
       <c r="H12" s="1">
         <v>720</v>
       </c>
-      <c r="I12" s="21">
-        <v>83.605066019999995</v>
-      </c>
-      <c r="J12" s="15">
+      <c r="I12" s="13">
+        <v>8.3605066019999992</v>
+      </c>
+      <c r="J12" s="11">
         <v>0.109</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="11">
         <v>0.23899999999999999</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18">
-      <c r="A13" s="7" t="s">
-        <v>16</v>
+    <row r="13" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
+      <c r="A13" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -1150,7 +1145,7 @@
       <c r="E13" s="1">
         <v>5</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="14">
         <v>0.2</v>
       </c>
       <c r="G13" s="1">
@@ -1159,21 +1154,21 @@
       <c r="H13" s="1">
         <v>720</v>
       </c>
-      <c r="I13" s="21">
-        <v>46.772064909999997</v>
-      </c>
-      <c r="J13" s="15">
+      <c r="I13" s="13">
+        <v>4.6772064909999997</v>
+      </c>
+      <c r="J13" s="11">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="11">
         <v>0.13400000000000001</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
+      <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1188,7 +1183,7 @@
       <c r="E14" s="1">
         <v>5</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="14">
         <v>0.22500000000000001</v>
       </c>
       <c r="G14" s="1">
@@ -1197,22 +1192,22 @@
       <c r="H14" s="1">
         <v>720</v>
       </c>
-      <c r="I14" s="20">
-        <v>80.097161159999999</v>
-      </c>
-      <c r="J14" s="15">
+      <c r="I14" s="2">
+        <v>8.0097161159999999</v>
+      </c>
+      <c r="J14" s="11">
         <v>0.39800000000000002</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="11">
         <v>0.875</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="12">
         <v>4.38</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18">
-      <c r="A15" s="7" t="s">
-        <v>18</v>
+    <row r="15" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
+      <c r="A15" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
@@ -1226,7 +1221,7 @@
       <c r="E15" s="1">
         <v>5</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="14">
         <v>0.22500000000000001</v>
       </c>
       <c r="G15" s="1">
@@ -1235,22 +1230,22 @@
       <c r="H15" s="1">
         <v>720</v>
       </c>
-      <c r="I15" s="21">
-        <v>64.896240059999997</v>
-      </c>
-      <c r="J15" s="15">
+      <c r="I15" s="13">
+        <v>6.4896240059999997</v>
+      </c>
+      <c r="J15" s="11">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="11">
         <v>0.186</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18">
-      <c r="A16" s="7" t="s">
-        <v>17</v>
+    <row r="16" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
+      <c r="A16" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
@@ -1264,7 +1259,7 @@
       <c r="E16" s="1">
         <v>5</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="14">
         <v>0.22500000000000001</v>
       </c>
       <c r="G16" s="1">
@@ -1273,244 +1268,66 @@
       <c r="H16" s="1">
         <v>720</v>
       </c>
-      <c r="I16" s="21">
-        <v>88.282272519999992</v>
-      </c>
-      <c r="J16" s="15">
+      <c r="I16" s="13">
+        <v>8.8282272519999996</v>
+      </c>
+      <c r="J16" s="11">
         <v>0.115</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="11">
         <v>0.253</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="19" thickBot="1">
-      <c r="A17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="s">
+    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="11">
-        <v>5</v>
-      </c>
-      <c r="D17" s="11">
-        <v>90</v>
-      </c>
-      <c r="E17" s="11">
-        <v>5</v>
-      </c>
-      <c r="F17" s="12">
+      <c r="C17" s="16">
+        <v>5</v>
+      </c>
+      <c r="D17" s="16">
+        <v>90</v>
+      </c>
+      <c r="E17" s="16">
+        <v>5</v>
+      </c>
+      <c r="F17" s="17">
         <v>0.22500000000000001</v>
       </c>
-      <c r="G17" s="11">
-        <v>80</v>
-      </c>
-      <c r="H17" s="11">
-        <v>720</v>
-      </c>
-      <c r="I17" s="22">
-        <v>58.465081139999995</v>
-      </c>
-      <c r="J17" s="17">
+      <c r="G17" s="16">
+        <v>80</v>
+      </c>
+      <c r="H17" s="16">
+        <v>720</v>
+      </c>
+      <c r="I17" s="18">
+        <v>5.8465081139999997</v>
+      </c>
+      <c r="J17" s="19">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="19">
         <v>0.16700000000000001</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18">
-      <c r="A18" s="7"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+    <row r="18" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
-    </row>
-    <row r="19" spans="1:12" ht="18">
-      <c r="A19" s="7"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="16"/>
-    </row>
-    <row r="20" spans="1:12" ht="18">
-      <c r="A20" s="7"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
-    </row>
-    <row r="21" spans="1:12" ht="18">
-      <c r="A21" s="7"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="16"/>
-    </row>
-    <row r="22" spans="1:12" ht="18">
-      <c r="A22" s="7"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="16"/>
-    </row>
-    <row r="23" spans="1:12" ht="18">
-      <c r="A23" s="7"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="16"/>
-    </row>
-    <row r="24" spans="1:12" ht="18">
-      <c r="A24" s="7"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="16"/>
-    </row>
-    <row r="25" spans="1:12" ht="18">
-      <c r="A25" s="7"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="16"/>
-    </row>
-    <row r="26" spans="1:12" ht="18">
-      <c r="A26" s="7"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="16"/>
-    </row>
-    <row r="27" spans="1:12" ht="18">
-      <c r="A27" s="7"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="16"/>
-    </row>
-    <row r="28" spans="1:12" ht="18">
-      <c r="A28" s="7"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="16"/>
-    </row>
-    <row r="29" spans="1:12" ht="19" thickBot="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="18"/>
-    </row>
-    <row r="30" spans="1:12" ht="18">
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" ht="18">
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" ht="18">
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="6:8" ht="18">
-      <c r="F33" s="3"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{D8C8FD32-723E-45FD-9552-C953F1875FC7}"/>
@@ -1528,11 +1345,11 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/engine2_database.xlsx
+++ b/engine2_database.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghoekwon/Desktop/LIB_Model/Engine_2/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF26106-C372-4208-92DE-EC08793E72F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383E1BB5-CDDF-824C-8816-96CB657BF18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{D1B6241B-A726-4FFC-A18A-530BCE24325E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{D1B6241B-A726-4FFC-A18A-530BCE24325E}"/>
   </bookViews>
   <sheets>
     <sheet name="LCA_Data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LCA_Data!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LCA_Data!$A$1:$L$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -82,40 +82,49 @@
   </si>
   <si>
     <t>Coating_Thickness_mm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>로딩매스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CMC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CMGG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>GG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Areal_Mass_Loading_mg_cm^2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Areal_Mass_Loading_mg_cm2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -150,6 +159,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -159,7 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -247,75 +263,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,29 +703,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C8FD32-723E-45FD-9552-C953F1875FC7}">
-  <dimension ref="A1:L19"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="13.8125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.3125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.3125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.1875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.1875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -698,7 +751,7 @@
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="22" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -711,46 +764,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:12" ht="18" hidden="1">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="5">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5">
         <v>90</v>
       </c>
-      <c r="E2" s="4">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6">
         <v>0.15</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>80</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>720</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="26">
         <v>5.3787874640000002</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="13">
         <v>0.26700000000000002</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="13">
         <v>0.58699999999999997</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="14">
         <v>2.94</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:12" ht="18" hidden="1">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -765,7 +818,7 @@
       <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>0.15</v>
       </c>
       <c r="G3" s="1">
@@ -774,21 +827,21 @@
       <c r="H3" s="1">
         <v>720</v>
       </c>
-      <c r="I3" s="2">
-        <v>5.2033922210000005</v>
-      </c>
-      <c r="J3" s="11">
+      <c r="I3" s="23">
+        <v>5.2033922209999997</v>
+      </c>
+      <c r="J3" s="15">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="15">
         <v>0.15</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:12" ht="18" hidden="1">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -803,7 +856,7 @@
       <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>0.15</v>
       </c>
       <c r="G4" s="1">
@@ -812,21 +865,21 @@
       <c r="H4" s="1">
         <v>720</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="24">
         <v>4.9695318970000004</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="15">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="15">
         <v>0.14299999999999999</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:12" ht="18">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -841,7 +894,7 @@
       <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>0.15</v>
       </c>
       <c r="G5" s="1">
@@ -850,21 +903,21 @@
       <c r="H5" s="1">
         <v>720</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="24">
         <v>2.8647889759999998</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="15">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="15">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:12" ht="18" hidden="1">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -888,21 +941,21 @@
       <c r="H6" s="1">
         <v>720</v>
       </c>
-      <c r="I6" s="13">
-        <v>5.4957176270000012</v>
-      </c>
-      <c r="J6" s="11">
+      <c r="I6" s="24">
+        <v>5.4957176270000003</v>
+      </c>
+      <c r="J6" s="15">
         <v>0.27300000000000002</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="15">
         <v>0.60099999999999998</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="16">
         <v>3.01</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:12" ht="18" hidden="1">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -926,21 +979,21 @@
       <c r="H7" s="1">
         <v>720</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="24">
         <v>5.6126477890000004</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="15">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="15">
         <v>0.161</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:12" ht="18" hidden="1">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -964,21 +1017,21 @@
       <c r="H8" s="1">
         <v>720</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="24">
         <v>6.6065541679999997</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="15">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="15">
         <v>0.189</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:12" ht="18">
+      <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1002,21 +1055,21 @@
       <c r="H9" s="1">
         <v>720</v>
       </c>
-      <c r="I9" s="13">
-        <v>3.5663699490000003</v>
-      </c>
-      <c r="J9" s="11">
+      <c r="I9" s="24">
+        <v>3.5663699489999998</v>
+      </c>
+      <c r="J9" s="15">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="15">
         <v>0.10199999999999999</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:12" ht="18" hidden="1">
+      <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1031,7 +1084,7 @@
       <c r="E10" s="1">
         <v>5</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="9">
         <v>0.2</v>
       </c>
       <c r="G10" s="1">
@@ -1040,21 +1093,21 @@
       <c r="H10" s="1">
         <v>720</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="24">
         <v>4.6772064909999997</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="15">
         <v>0.23200000000000001</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="15">
         <v>0.51100000000000001</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="16">
         <v>2.56</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:12" ht="18" hidden="1">
+      <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1069,7 +1122,7 @@
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="9">
         <v>0.2</v>
       </c>
       <c r="G11" s="1">
@@ -1078,21 +1131,21 @@
       <c r="H11" s="1">
         <v>720</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="24">
         <v>5.4372525459999999</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="15">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="15">
         <v>0.156</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:12" ht="18" hidden="1">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1107,7 +1160,7 @@
       <c r="E12" s="1">
         <v>5</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="9">
         <v>0.2</v>
       </c>
       <c r="G12" s="1">
@@ -1116,21 +1169,21 @@
       <c r="H12" s="1">
         <v>720</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="24">
         <v>8.3605066019999992</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="15">
         <v>0.109</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="15">
         <v>0.23899999999999999</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:12" ht="18">
+      <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1145,7 +1198,7 @@
       <c r="E13" s="1">
         <v>5</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="9">
         <v>0.2</v>
       </c>
       <c r="G13" s="1">
@@ -1154,21 +1207,21 @@
       <c r="H13" s="1">
         <v>720</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="24">
         <v>4.6772064909999997</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="15">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="15">
         <v>0.13400000000000001</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:12" ht="18" hidden="1">
+      <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1183,7 +1236,7 @@
       <c r="E14" s="1">
         <v>5</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="9">
         <v>0.22500000000000001</v>
       </c>
       <c r="G14" s="1">
@@ -1192,21 +1245,21 @@
       <c r="H14" s="1">
         <v>720</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="23">
         <v>8.0097161159999999</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="15">
         <v>0.39800000000000002</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="15">
         <v>0.875</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="16">
         <v>4.38</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:12" ht="18" hidden="1">
+      <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1221,7 +1274,7 @@
       <c r="E15" s="1">
         <v>5</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="9">
         <v>0.22500000000000001</v>
       </c>
       <c r="G15" s="1">
@@ -1230,21 +1283,21 @@
       <c r="H15" s="1">
         <v>720</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="24">
         <v>6.4896240059999997</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="15">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="15">
         <v>0.186</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:12" ht="18" hidden="1">
+      <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1259,7 +1312,7 @@
       <c r="E16" s="1">
         <v>5</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="9">
         <v>0.22500000000000001</v>
       </c>
       <c r="G16" s="1">
@@ -1268,70 +1321,254 @@
       <c r="H16" s="1">
         <v>720</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="24">
         <v>8.8282272519999996</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="15">
         <v>0.115</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="15">
         <v>0.253</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:12" ht="19" thickBot="1">
+      <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="16">
-        <v>5</v>
-      </c>
-      <c r="D17" s="16">
+      <c r="C17" s="11">
+        <v>5</v>
+      </c>
+      <c r="D17" s="11">
         <v>90</v>
       </c>
-      <c r="E17" s="16">
-        <v>5</v>
-      </c>
-      <c r="F17" s="17">
+      <c r="E17" s="11">
+        <v>5</v>
+      </c>
+      <c r="F17" s="12">
         <v>0.22500000000000001</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="11">
         <v>80</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="11">
         <v>720</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="25">
         <v>5.8465081139999997</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="17">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="17">
         <v>0.16700000000000001</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:12" ht="18">
+      <c r="A18" s="7"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.6">
+      <c r="I18" s="20"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" ht="18">
+      <c r="A19" s="7"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" ht="18">
+      <c r="A20" s="7"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" ht="18">
+      <c r="A21" s="7"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="1:12" ht="18">
+      <c r="A22" s="7"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="1:12" ht="18">
+      <c r="A23" s="7"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="24" spans="1:12" ht="18">
+      <c r="A24" s="7"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="16"/>
+    </row>
+    <row r="25" spans="1:12" ht="18">
+      <c r="A25" s="7"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="1:12" ht="18">
+      <c r="A26" s="7"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="16"/>
+    </row>
+    <row r="27" spans="1:12" ht="18">
+      <c r="A27" s="7"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="16"/>
+    </row>
+    <row r="28" spans="1:12" ht="18">
+      <c r="A28" s="7"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="16"/>
+    </row>
+    <row r="29" spans="1:12" ht="19" thickBot="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="18"/>
+    </row>
+    <row r="30" spans="1:12" ht="18">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" ht="18">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" ht="18">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="6:8" ht="18">
+      <c r="F33" s="3"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{D8C8FD32-723E-45FD-9552-C953F1875FC7}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <autoFilter ref="A1:L17" xr:uid="{D8C8FD32-723E-45FD-9552-C953F1875FC7}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="CMC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1345,15 +1582,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/engine2_database.xlsx
+++ b/engine2_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghoekwon/Desktop/LIB_Model/Engine_2/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383E1BB5-CDDF-824C-8816-96CB657BF18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BEB78F-E7E1-C242-85BA-75986E4B748A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{D1B6241B-A726-4FFC-A18A-530BCE24325E}"/>
   </bookViews>
@@ -101,7 +101,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Areal_Mass_Loading_mg_cm2</t>
+    <t>Areal_Mass_Loading_mg_cm^2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -354,19 +354,19 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -706,8 +706,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -751,7 +751,7 @@
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="26" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -789,7 +789,7 @@
       <c r="H2" s="5">
         <v>720</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="25">
         <v>5.3787874640000002</v>
       </c>
       <c r="J2" s="13">
@@ -827,7 +827,7 @@
       <c r="H3" s="1">
         <v>720</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="22">
         <v>5.2033922209999997</v>
       </c>
       <c r="J3" s="15">
@@ -865,7 +865,7 @@
       <c r="H4" s="1">
         <v>720</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="23">
         <v>4.9695318970000004</v>
       </c>
       <c r="J4" s="15">
@@ -903,7 +903,7 @@
       <c r="H5" s="1">
         <v>720</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="23">
         <v>2.8647889759999998</v>
       </c>
       <c r="J5" s="15">
@@ -941,7 +941,7 @@
       <c r="H6" s="1">
         <v>720</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="23">
         <v>5.4957176270000003</v>
       </c>
       <c r="J6" s="15">
@@ -979,7 +979,7 @@
       <c r="H7" s="1">
         <v>720</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="23">
         <v>5.6126477890000004</v>
       </c>
       <c r="J7" s="15">
@@ -1017,7 +1017,7 @@
       <c r="H8" s="1">
         <v>720</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="23">
         <v>6.6065541679999997</v>
       </c>
       <c r="J8" s="15">
@@ -1055,7 +1055,7 @@
       <c r="H9" s="1">
         <v>720</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="23">
         <v>3.5663699489999998</v>
       </c>
       <c r="J9" s="15">
@@ -1093,7 +1093,7 @@
       <c r="H10" s="1">
         <v>720</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="23">
         <v>4.6772064909999997</v>
       </c>
       <c r="J10" s="15">
@@ -1131,7 +1131,7 @@
       <c r="H11" s="1">
         <v>720</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="23">
         <v>5.4372525459999999</v>
       </c>
       <c r="J11" s="15">
@@ -1169,7 +1169,7 @@
       <c r="H12" s="1">
         <v>720</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="23">
         <v>8.3605066019999992</v>
       </c>
       <c r="J12" s="15">
@@ -1207,7 +1207,7 @@
       <c r="H13" s="1">
         <v>720</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="23">
         <v>4.6772064909999997</v>
       </c>
       <c r="J13" s="15">
@@ -1245,7 +1245,7 @@
       <c r="H14" s="1">
         <v>720</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <v>8.0097161159999999</v>
       </c>
       <c r="J14" s="15">
@@ -1283,7 +1283,7 @@
       <c r="H15" s="1">
         <v>720</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="23">
         <v>6.4896240059999997</v>
       </c>
       <c r="J15" s="15">
@@ -1321,7 +1321,7 @@
       <c r="H16" s="1">
         <v>720</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="23">
         <v>8.8282272519999996</v>
       </c>
       <c r="J16" s="15">
@@ -1359,7 +1359,7 @@
       <c r="H17" s="11">
         <v>720</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="24">
         <v>5.8465081139999997</v>
       </c>
       <c r="J17" s="17">
